--- a/biology/Botanique/Coucou_(plante)/Coucou_(plante).xlsx
+++ b/biology/Botanique/Coucou_(plante)/Coucou_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines plantes, quoique de morphologies assez diverses et éloignées, prennent en français le nom vernaculaire de coucou ou fleur de coucou. Il s'agit en général de plantes prairiales ayant la particularité de fleurir au printemps, au moment de l'arrivée du coucou en Europe :
 coucou est le nom vernaculaire donné à la  Primevère officinale (Primula veris) ;
